--- a/Altium/Utils.xlsx
+++ b/Altium/Utils.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="60" windowWidth="22860" windowHeight="14445" activeTab="2"/>
+    <workbookView xWindow="3585" yWindow="60" windowWidth="22860" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="inch to mm" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="AltiumXY" sheetId="4" r:id="rId2"/>
+    <sheet name="inch to mm" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>dim</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>4-LAYER</t>
+  </si>
+  <si>
+    <t>step</t>
   </si>
 </sst>
 </file>
@@ -649,6 +653,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>C1-$A$2</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C32" si="0">C2-$A$2</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-47.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-52.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-57.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-67.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-72.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-77.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -723,11 +1036,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Altium/Utils.xlsx
+++ b/Altium/Utils.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="60" windowWidth="22860" windowHeight="14445" activeTab="1"/>
+    <workbookView xWindow="5850" yWindow="60" windowWidth="22860" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>dim</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>offset</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C1" sqref="C1:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -669,6 +672,7 @@
         <v>1</v>
       </c>
       <c r="C1">
+        <f>-$A$2*(B1-1)+$A$5</f>
         <v>0</v>
       </c>
     </row>
@@ -680,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>C1-$A$2</f>
+        <f t="shared" ref="C2:C33" si="0">-$A$2*(B2-1)+$A$5</f>
         <v>-2.5</v>
       </c>
     </row>
@@ -689,11 +693,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C32" si="0">C2-$A$2</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
       <c r="B4">
         <v>4</v>
       </c>
@@ -703,6 +710,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0</v>
+      </c>
       <c r="B5">
         <v>5</v>
       </c>
@@ -952,6 +962,15 @@
       <c r="C32">
         <f t="shared" si="0"/>
         <v>-77.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-80</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/Utils.xlsx
+++ b/Altium/Utils.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="60" windowWidth="22860" windowHeight="14445" activeTab="1"/>
+    <workbookView xWindow="8115" yWindow="60" windowWidth="22860" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="AltiumXY" sheetId="4" r:id="rId2"/>
-    <sheet name="inch to mm" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="even odd" sheetId="5" r:id="rId3"/>
+    <sheet name="inch to mm" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -656,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C33"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -673,19 +674,19 @@
       </c>
       <c r="C1">
         <f>-$A$2*(B1-1)+$A$5</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="6">
-        <v>2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" si="0">-$A$2*(B2-1)+$A$5</f>
-        <v>-2.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -694,7 +695,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -706,19 +707,19 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -727,7 +728,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-12.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -736,7 +737,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -745,7 +746,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-17.5</v>
+        <v>9.2000000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -754,7 +755,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -763,7 +764,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-22.5</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -772,7 +773,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -781,7 +782,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-27.5</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -790,7 +791,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -799,7 +800,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-32.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -808,7 +809,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -817,7 +818,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-37.5</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -826,7 +827,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>16.400000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -835,7 +836,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-42.5</v>
+        <v>17.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -844,7 +845,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -853,7 +854,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-47.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -862,7 +863,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -871,7 +872,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-52.5</v>
+        <v>20.400000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -880,7 +881,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>21.200000000000003</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -889,7 +890,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-57.5</v>
+        <v>22.000000000000004</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -898,7 +899,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>22.800000000000004</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -907,7 +908,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>-62.5</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -916,7 +917,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>-65</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -925,7 +926,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>-67.5</v>
+        <v>25.200000000000003</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -934,7 +935,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>26.000000000000004</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -943,7 +944,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>-72.5</v>
+        <v>26.800000000000004</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -952,7 +953,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-75</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -961,7 +962,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>-77.5</v>
+        <v>28.400000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -970,7 +971,178 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>29.200000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C52" si="1">-$A$2*(B34-1)+$A$5</f>
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>30.800000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>34.800000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>36.400000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>38.800000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>40.400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>42.800000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>44.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -980,6 +1152,309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <f>A1+2</f>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>B1+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <f>A2+2</f>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>B2+2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f>A3+2</f>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>B3+2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f>A4+2</f>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>B4+2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A29" si="0">A5+2</f>
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B29" si="1">B5+2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1055,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
